--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Northern Giant Petrel_Prince Edward Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Northern Giant Petrel_Prince Edward Islands.xlsx
@@ -2920,13 +2920,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EADF7FB5-CA4B-491F-9C72-DA99AF7B0E80}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FE2B8C-E2FE-46AE-AD13-F8664DA8FACF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D156C5D-46D0-49F9-9923-CA268B16B1BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFBA0FC1-8EFF-46DB-88F5-28234DCA602D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8B9BCBF-7ECE-48CC-86E9-912CF3B43DEA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B29CC924-41FD-4F72-9595-A570B77D3CBB}"/>
 </file>